--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patry\IdeaProjects\phpTravels\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A4BB28-70DD-4DE6-A867-3AB9AA8AB7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DF96E6-5DC4-4BDA-8E15-65A840430370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F80F78B8-3C63-4D6E-96A0-4856ED87A3A2}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>London</t>
   </si>
   <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
+    <t>Jumeirah Beach Hotel</t>
+  </si>
+  <si>
+    <t>Grand Plaza Apartments</t>
   </si>
 </sst>
 </file>
@@ -407,10 +407,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
